--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/32/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/32/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>5.62183</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>5621.83</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667520000000001</v>
+        <v>6.463430000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.52</v>
+        <v>6463.43</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.05657</v>
+        <v>7.181010000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>7056.57</v>
+        <v>7181.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247929</v>
       </c>
       <c r="B10" t="n">
-        <v>7.12518</v>
+        <v>7.89807</v>
       </c>
       <c r="C10" t="n">
-        <v>7125.18</v>
+        <v>7898.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278892</v>
+        <v>0.278854</v>
       </c>
       <c r="B11" t="n">
-        <v>7.146430000000001</v>
+        <v>8.345229999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>7146.43</v>
+        <v>8345.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309817</v>
+        <v>0.309779</v>
       </c>
       <c r="B12" t="n">
-        <v>7.159140000000001</v>
+        <v>8.65072</v>
       </c>
       <c r="C12" t="n">
-        <v>7159.14</v>
+        <v>8650.719999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340742</v>
+        <v>0.340704</v>
       </c>
       <c r="B13" t="n">
-        <v>7.160979999999999</v>
+        <v>8.70847</v>
       </c>
       <c r="C13" t="n">
-        <v>7160.98</v>
+        <v>8708.469999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371667</v>
+        <v>0.371629</v>
       </c>
       <c r="B14" t="n">
-        <v>7.16547</v>
+        <v>8.715430000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>7165.47</v>
+        <v>8715.43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402592</v>
+        <v>0.402554</v>
       </c>
       <c r="B15" t="n">
-        <v>7.16141</v>
+        <v>8.71241</v>
       </c>
       <c r="C15" t="n">
-        <v>7161.41</v>
+        <v>8712.41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433517</v>
+        <v>0.433479</v>
       </c>
       <c r="B16" t="n">
-        <v>7.153020000000001</v>
+        <v>8.707549999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>7153.02</v>
+        <v>8707.549999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464442</v>
+        <v>0.464404</v>
       </c>
       <c r="B17" t="n">
-        <v>7.14341</v>
+        <v>8.7014</v>
       </c>
       <c r="C17" t="n">
-        <v>7143.41</v>
+        <v>8701.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495367</v>
+        <v>0.495329</v>
       </c>
       <c r="B18" t="n">
-        <v>7.12491</v>
+        <v>8.694739999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>7124.91</v>
+        <v>8694.74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526292</v>
+        <v>0.526255</v>
       </c>
       <c r="B19" t="n">
-        <v>7.109649999999999</v>
+        <v>8.687110000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>7109.65</v>
+        <v>8687.110000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557217</v>
+        <v>0.55718</v>
       </c>
       <c r="B20" t="n">
-        <v>7.08582</v>
+        <v>8.678870000000002</v>
       </c>
       <c r="C20" t="n">
-        <v>7085.82</v>
+        <v>8678.870000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5881420000000001</v>
+        <v>0.588105</v>
       </c>
       <c r="B21" t="n">
-        <v>7.06301</v>
+        <v>8.669739999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>7063.01</v>
+        <v>8669.74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619184</v>
+        <v>0.619147</v>
       </c>
       <c r="B22" t="n">
-        <v>7.03772</v>
+        <v>8.66015</v>
       </c>
       <c r="C22" t="n">
-        <v>7037.72</v>
+        <v>8660.15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650319</v>
       </c>
       <c r="B23" t="n">
-        <v>7.00983</v>
+        <v>8.64986</v>
       </c>
       <c r="C23" t="n">
-        <v>7009.83</v>
+        <v>8649.860000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815290000000001</v>
+        <v>0.681492</v>
       </c>
       <c r="B24" t="n">
-        <v>6.97978</v>
+        <v>8.639089999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>6979.78</v>
+        <v>8639.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712706</v>
+        <v>0.712669</v>
       </c>
       <c r="B25" t="n">
-        <v>6.94796</v>
+        <v>8.627739999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>6947.96</v>
+        <v>8627.74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743879</v>
+        <v>0.743841</v>
       </c>
       <c r="B26" t="n">
-        <v>6.914140000000001</v>
+        <v>8.615819999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>6914.14</v>
+        <v>8615.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775056</v>
+        <v>0.775018</v>
       </c>
       <c r="B27" t="n">
-        <v>6.87836</v>
+        <v>8.603299999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>6878.36</v>
+        <v>8603.299999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8062279999999999</v>
+        <v>0.806191</v>
       </c>
       <c r="B28" t="n">
-        <v>6.840770000000001</v>
+        <v>8.590260000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>6840.77</v>
+        <v>8590.26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837401</v>
+        <v>0.837363</v>
       </c>
       <c r="B29" t="n">
-        <v>6.80141</v>
+        <v>8.576780000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>6801.41</v>
+        <v>8576.780000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868578</v>
+        <v>0.868541</v>
       </c>
       <c r="B30" t="n">
-        <v>6.75921</v>
+        <v>8.56274</v>
       </c>
       <c r="C30" t="n">
-        <v>6759.21</v>
+        <v>8562.74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89975</v>
+        <v>0.899713</v>
       </c>
       <c r="B31" t="n">
-        <v>6.71403</v>
+        <v>8.548129999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>6714.03</v>
+        <v>8548.129999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9309229999999999</v>
+        <v>0.930886</v>
       </c>
       <c r="B32" t="n">
-        <v>6.66573</v>
+        <v>8.53303</v>
       </c>
       <c r="C32" t="n">
-        <v>6665.73</v>
+        <v>8533.030000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9621</v>
+        <v>0.962063</v>
       </c>
       <c r="B33" t="n">
-        <v>6.613939999999999</v>
+        <v>8.517389999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>6613.94</v>
+        <v>8517.389999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993273</v>
+        <v>0.993235</v>
       </c>
       <c r="B34" t="n">
-        <v>6.559550000000001</v>
+        <v>8.50113</v>
       </c>
       <c r="C34" t="n">
-        <v>6559.55</v>
+        <v>8501.129999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02457</v>
+        <v>1.02454</v>
       </c>
       <c r="B35" t="n">
-        <v>6.50147</v>
+        <v>8.48414</v>
       </c>
       <c r="C35" t="n">
-        <v>6501.47</v>
+        <v>8484.139999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05593</v>
       </c>
       <c r="B36" t="n">
-        <v>6.44016</v>
+        <v>8.46655</v>
       </c>
       <c r="C36" t="n">
-        <v>6440.16</v>
+        <v>8466.549999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08727</v>
+        <v>1.0873</v>
       </c>
       <c r="B37" t="n">
-        <v>6.37548</v>
+        <v>8.448370000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>6375.48</v>
+        <v>8448.370000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11829</v>
+        <v>1.11869</v>
       </c>
       <c r="B38" t="n">
-        <v>6.30775</v>
+        <v>8.42905</v>
       </c>
       <c r="C38" t="n">
-        <v>6307.75</v>
+        <v>8429.049999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1493</v>
+        <v>1.15007</v>
       </c>
       <c r="B39" t="n">
-        <v>6.23693</v>
+        <v>8.409030000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>6236.93</v>
+        <v>8409.030000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18027</v>
+        <v>1.18145</v>
       </c>
       <c r="B40" t="n">
-        <v>6.16281</v>
+        <v>8.388170000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>6162.81</v>
+        <v>8388.17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21125</v>
+        <v>1.21283</v>
       </c>
       <c r="B41" t="n">
-        <v>6.08579</v>
+        <v>8.365860000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>6085.79</v>
+        <v>8365.860000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24222</v>
+        <v>1.24421</v>
       </c>
       <c r="B42" t="n">
-        <v>6.00575</v>
+        <v>8.34294</v>
       </c>
       <c r="C42" t="n">
-        <v>6005.75</v>
+        <v>8342.940000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27324</v>
+        <v>1.27559</v>
       </c>
       <c r="B43" t="n">
-        <v>5.92264</v>
+        <v>8.31934</v>
       </c>
       <c r="C43" t="n">
-        <v>5922.64</v>
+        <v>8319.34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30422</v>
+        <v>1.30697</v>
       </c>
       <c r="B44" t="n">
-        <v>5.83696</v>
+        <v>8.29504</v>
       </c>
       <c r="C44" t="n">
-        <v>5836.96</v>
+        <v>8295.040000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33521</v>
+        <v>1.33835</v>
       </c>
       <c r="B45" t="n">
-        <v>5.74892</v>
+        <v>8.269969999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>5748.92</v>
+        <v>8269.969999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36628</v>
+        <v>1.36973</v>
       </c>
       <c r="B46" t="n">
-        <v>5.65817</v>
+        <v>8.24394</v>
       </c>
       <c r="C46" t="n">
-        <v>5658.17</v>
+        <v>8243.940000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39714</v>
+        <v>1.40111</v>
       </c>
       <c r="B47" t="n">
-        <v>5.56628</v>
+        <v>8.216959999999998</v>
       </c>
       <c r="C47" t="n">
-        <v>5566.28</v>
+        <v>8216.959999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42827</v>
+        <v>1.43249</v>
       </c>
       <c r="B48" t="n">
-        <v>5.471979999999999</v>
+        <v>8.18873</v>
       </c>
       <c r="C48" t="n">
-        <v>5471.98</v>
+        <v>8188.73</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45914</v>
+        <v>1.46364</v>
       </c>
       <c r="B49" t="n">
-        <v>5.37754</v>
+        <v>8.159330000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>5377.54</v>
+        <v>8159.33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49031</v>
+        <v>1.49452</v>
       </c>
       <c r="B50" t="n">
-        <v>5.2812</v>
+        <v>8.12886</v>
       </c>
       <c r="C50" t="n">
-        <v>5281.2</v>
+        <v>8128.86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52112</v>
+        <v>1.52569</v>
       </c>
       <c r="B51" t="n">
-        <v>5.185390000000001</v>
+        <v>8.0969</v>
       </c>
       <c r="C51" t="n">
-        <v>5185.39</v>
+        <v>8096.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55226</v>
+        <v>1.5564</v>
       </c>
       <c r="B52" t="n">
-        <v>5.08825</v>
+        <v>8.064030000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>5088.25</v>
+        <v>8064.03</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58316</v>
+        <v>1.58766</v>
       </c>
       <c r="B53" t="n">
-        <v>4.99206</v>
+        <v>8.02908</v>
       </c>
       <c r="C53" t="n">
-        <v>4992.06</v>
+        <v>8029.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61422</v>
+        <v>1.61846</v>
       </c>
       <c r="B54" t="n">
-        <v>4.896770000000001</v>
+        <v>7.99322</v>
       </c>
       <c r="C54" t="n">
-        <v>4896.77</v>
+        <v>7993.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64526</v>
+        <v>1.64963</v>
       </c>
       <c r="B55" t="n">
-        <v>4.80259</v>
+        <v>7.955340000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>4802.59</v>
+        <v>7955.34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67608</v>
+        <v>1.68048</v>
       </c>
       <c r="B56" t="n">
-        <v>4.71071</v>
+        <v>7.91631</v>
       </c>
       <c r="C56" t="n">
-        <v>4710.71</v>
+        <v>7916.31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70734</v>
+        <v>1.71166</v>
       </c>
       <c r="B57" t="n">
-        <v>4.619260000000001</v>
+        <v>7.87519</v>
       </c>
       <c r="C57" t="n">
-        <v>4619.26</v>
+        <v>7875.19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73799</v>
+        <v>1.7425</v>
       </c>
       <c r="B58" t="n">
-        <v>4.53146</v>
+        <v>7.83273</v>
       </c>
       <c r="C58" t="n">
-        <v>4531.46</v>
+        <v>7832.73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.7693</v>
+        <v>1.77365</v>
       </c>
       <c r="B59" t="n">
-        <v>4.44382</v>
+        <v>7.7879</v>
       </c>
       <c r="C59" t="n">
-        <v>4443.82</v>
+        <v>7787.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80024</v>
+        <v>1.80441</v>
       </c>
       <c r="B60" t="n">
-        <v>4.359430000000001</v>
+        <v>7.741810000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>4359.43</v>
+        <v>7741.81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.831</v>
+        <v>1.83571</v>
       </c>
       <c r="B61" t="n">
-        <v>4.27816</v>
+        <v>7.69287</v>
       </c>
       <c r="C61" t="n">
-        <v>4278.16</v>
+        <v>7692.87</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86236</v>
+        <v>1.8665</v>
       </c>
       <c r="B62" t="n">
-        <v>4.19773</v>
+        <v>7.64262</v>
       </c>
       <c r="C62" t="n">
-        <v>4197.73</v>
+        <v>7642.62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89315</v>
+        <v>1.89768</v>
       </c>
       <c r="B63" t="n">
-        <v>4.12144</v>
+        <v>7.58959</v>
       </c>
       <c r="C63" t="n">
-        <v>4121.44</v>
+        <v>7589.59</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92416</v>
+        <v>1.92861</v>
       </c>
       <c r="B64" t="n">
-        <v>4.04779</v>
+        <v>7.53494</v>
       </c>
       <c r="C64" t="n">
-        <v>4047.79</v>
+        <v>7534.94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95545</v>
+        <v>1.95966</v>
       </c>
       <c r="B65" t="n">
-        <v>3.97627</v>
+        <v>7.4777</v>
       </c>
       <c r="C65" t="n">
-        <v>3976.27</v>
+        <v>7477.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98612</v>
+        <v>1.99059</v>
       </c>
       <c r="B66" t="n">
-        <v>3.90894</v>
+        <v>7.41862</v>
       </c>
       <c r="C66" t="n">
-        <v>3908.94</v>
+        <v>7418.62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01703</v>
+        <v>2.02167</v>
       </c>
       <c r="B67" t="n">
-        <v>3.84424</v>
+        <v>7.35715</v>
       </c>
       <c r="C67" t="n">
-        <v>3844.24</v>
+        <v>7357.15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04865</v>
+        <v>2.05256</v>
       </c>
       <c r="B68" t="n">
-        <v>3.78143</v>
+        <v>7.29387</v>
       </c>
       <c r="C68" t="n">
-        <v>3781.43</v>
+        <v>7293.87</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07939</v>
+        <v>2.08356</v>
       </c>
       <c r="B69" t="n">
-        <v>3.72229</v>
+        <v>7.22854</v>
       </c>
       <c r="C69" t="n">
-        <v>3722.29</v>
+        <v>7228.54</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11074</v>
+        <v>2.11469</v>
       </c>
       <c r="B70" t="n">
-        <v>3.66559</v>
+        <v>7.161350000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>3665.59</v>
+        <v>7161.35</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14316</v>
+        <v>2.14555</v>
       </c>
       <c r="B71" t="n">
-        <v>3.60981</v>
+        <v>7.092000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>3609.81</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17559</v>
+        <v>2.1766</v>
       </c>
       <c r="B72" t="n">
-        <v>3.55626</v>
+        <v>7.02121</v>
       </c>
       <c r="C72" t="n">
-        <v>3556.26</v>
+        <v>7021.21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20802</v>
+        <v>2.20759</v>
       </c>
       <c r="B73" t="n">
-        <v>3.50449</v>
+        <v>6.94846</v>
       </c>
       <c r="C73" t="n">
-        <v>3504.49</v>
+        <v>6948.46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.24044</v>
+        <v>2.23857</v>
       </c>
       <c r="B74" t="n">
-        <v>3.45448</v>
+        <v>6.87392</v>
       </c>
       <c r="C74" t="n">
-        <v>3454.48</v>
+        <v>6873.92</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27207</v>
+        <v>2.26964</v>
       </c>
       <c r="B75" t="n">
-        <v>3.41969</v>
+        <v>6.79849</v>
       </c>
       <c r="C75" t="n">
-        <v>3419.69</v>
+        <v>6798.49</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30282</v>
+        <v>2.30053</v>
       </c>
       <c r="B76" t="n">
-        <v>3.38607</v>
+        <v>6.72117</v>
       </c>
       <c r="C76" t="n">
-        <v>3386.07</v>
+        <v>6721.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33322</v>
+        <v>2.33187</v>
       </c>
       <c r="B77" t="n">
-        <v>3.35312</v>
+        <v>6.64254</v>
       </c>
       <c r="C77" t="n">
-        <v>3353.12</v>
+        <v>6642.54</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36374</v>
+        <v>2.36211</v>
       </c>
       <c r="B78" t="n">
-        <v>3.33766</v>
+        <v>6.56456</v>
       </c>
       <c r="C78" t="n">
-        <v>3337.66</v>
+        <v>6564.56</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3936</v>
+        <v>2.39408</v>
       </c>
       <c r="B79" t="n">
-        <v>3.33117</v>
+        <v>6.48299</v>
       </c>
       <c r="C79" t="n">
-        <v>3331.17</v>
+        <v>6482.99</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42411</v>
+        <v>2.42448</v>
       </c>
       <c r="B80" t="n">
-        <v>3.31745</v>
+        <v>6.402670000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>3317.45</v>
+        <v>6402.67</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45432</v>
+        <v>2.45488</v>
       </c>
       <c r="B81" t="n">
-        <v>3.30977</v>
+        <v>6.32382</v>
       </c>
       <c r="C81" t="n">
-        <v>3309.77</v>
+        <v>6323.82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48419</v>
+        <v>2.48424</v>
       </c>
       <c r="B82" t="n">
-        <v>3.29736</v>
+        <v>6.24628</v>
       </c>
       <c r="C82" t="n">
-        <v>3297.36</v>
+        <v>6246.28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51268</v>
+        <v>2.51627</v>
       </c>
       <c r="B83" t="n">
-        <v>3.28834</v>
+        <v>6.16192</v>
       </c>
       <c r="C83" t="n">
-        <v>3288.34</v>
+        <v>6161.92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54107</v>
+        <v>2.54883</v>
       </c>
       <c r="B84" t="n">
-        <v>3.27215</v>
+        <v>6.07707</v>
       </c>
       <c r="C84" t="n">
-        <v>3272.15</v>
+        <v>6077.07</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57435</v>
+        <v>2.57992</v>
       </c>
       <c r="B85" t="n">
-        <v>3.25583</v>
+        <v>5.99411</v>
       </c>
       <c r="C85" t="n">
-        <v>3255.83</v>
+        <v>5994.11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60763</v>
+        <v>2.61101</v>
       </c>
       <c r="B86" t="n">
-        <v>3.23845</v>
+        <v>5.913</v>
       </c>
       <c r="C86" t="n">
-        <v>3238.45</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64091</v>
+        <v>2.64119</v>
       </c>
       <c r="B87" t="n">
-        <v>3.2225</v>
+        <v>5.83363</v>
       </c>
       <c r="C87" t="n">
-        <v>3222.5</v>
+        <v>5833.63</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67419</v>
+        <v>2.67045</v>
       </c>
       <c r="B88" t="n">
-        <v>3.20531</v>
+        <v>5.75599</v>
       </c>
       <c r="C88" t="n">
-        <v>3205.31</v>
+        <v>5755.99</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70639</v>
+        <v>2.70052</v>
       </c>
       <c r="B89" t="n">
-        <v>3.18811</v>
+        <v>5.677890000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>3188.11</v>
+        <v>5677.89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73711</v>
+        <v>2.73363</v>
       </c>
       <c r="B90" t="n">
-        <v>3.17409</v>
+        <v>5.59118</v>
       </c>
       <c r="C90" t="n">
-        <v>3174.09</v>
+        <v>5591.18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76783</v>
+        <v>2.76563</v>
       </c>
       <c r="B91" t="n">
-        <v>3.15304</v>
+        <v>5.506430000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>3153.04</v>
+        <v>5506.43</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79855</v>
+        <v>2.79763</v>
       </c>
       <c r="B92" t="n">
-        <v>3.13969</v>
+        <v>5.42383</v>
       </c>
       <c r="C92" t="n">
-        <v>3139.69</v>
+        <v>5423.83</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82927</v>
+        <v>2.82893</v>
       </c>
       <c r="B93" t="n">
-        <v>3.11752</v>
+        <v>5.34326</v>
       </c>
       <c r="C93" t="n">
-        <v>3117.52</v>
+        <v>5343.26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85999</v>
+        <v>2.85879</v>
       </c>
       <c r="B94" t="n">
-        <v>3.09867</v>
+        <v>5.264699999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>3098.67</v>
+        <v>5264.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89071</v>
+        <v>2.88866</v>
       </c>
       <c r="B95" t="n">
-        <v>3.08606</v>
+        <v>5.18788</v>
       </c>
       <c r="C95" t="n">
-        <v>3086.06</v>
+        <v>5187.88</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92141</v>
+        <v>2.91853</v>
       </c>
       <c r="B96" t="n">
-        <v>3.06729</v>
+        <v>5.112310000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>3067.29</v>
+        <v>5112.31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94957</v>
+        <v>2.94666</v>
       </c>
       <c r="B97" t="n">
-        <v>3.05657</v>
+        <v>5.03892</v>
       </c>
       <c r="C97" t="n">
-        <v>3056.57</v>
+        <v>5038.92</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97773</v>
+        <v>2.97906</v>
       </c>
       <c r="B98" t="n">
-        <v>3.03244</v>
+        <v>4.9546</v>
       </c>
       <c r="C98" t="n">
-        <v>3032.44</v>
+        <v>4954.6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00589</v>
+        <v>3.01234</v>
       </c>
       <c r="B99" t="n">
-        <v>3.0241</v>
+        <v>4.87056</v>
       </c>
       <c r="C99" t="n">
-        <v>3024.1</v>
+        <v>4870.56</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03405</v>
+        <v>3.04562</v>
       </c>
       <c r="B100" t="n">
-        <v>3.00295</v>
+        <v>4.788819999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>3002.95</v>
+        <v>4788.82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06221</v>
+        <v>3.0771</v>
       </c>
       <c r="B101" t="n">
-        <v>2.99308</v>
+        <v>4.70925</v>
       </c>
       <c r="C101" t="n">
-        <v>2993.08</v>
+        <v>4709.25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09324</v>
+        <v>3.10782</v>
       </c>
       <c r="B102" t="n">
-        <v>2.97671</v>
+        <v>4.63185</v>
       </c>
       <c r="C102" t="n">
-        <v>2976.71</v>
+        <v>4631.85</v>
       </c>
     </row>
   </sheetData>
